--- a/testing/retrasst/is-query-correct/fubar-chunks.xlsx
+++ b/testing/retrasst/is-query-correct/fubar-chunks.xlsx
@@ -1000,7 +1000,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
